--- a/uploads/file1.xlsx
+++ b/uploads/file1.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osher\OneDrive\שולחן העבודה\אתרים תלפיות\mail-sender-tlp\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osher/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676036A-C45A-40D7-BA08-EE6E4AB8CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECE3302-7944-6C42-A8C2-2C9C457F2B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB58670E-FBAA-4CA5-B407-2C53648FC72D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{32C5ACDD-ED1B-1547-A362-C445F2D48323}"/>
   </bookViews>
   <sheets>
-    <sheet name="דוח לאזור אישי_28-05-2024" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'דוח לאזור אישי_28-05-2024'!$A$1:$I$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>שם פרטי</t>
   </si>
@@ -65,118 +62,205 @@
     <t>תאריך שינוי</t>
   </si>
   <si>
+    <t>מוטי</t>
+  </si>
+  <si>
     <t>הופק</t>
   </si>
   <si>
+    <t>אברהם</t>
+  </si>
+  <si>
     <t>הצעה</t>
   </si>
   <si>
-    <t xml:space="preserve">בר כוכבא ריקי </t>
+    <t>אבי</t>
+  </si>
+  <si>
+    <t>מזל</t>
+  </si>
+  <si>
+    <t>עסק</t>
+  </si>
+  <si>
+    <t>יעל</t>
+  </si>
+  <si>
+    <t>גרינפלד מלכה</t>
+  </si>
+  <si>
+    <t>אין מענה</t>
+  </si>
+  <si>
+    <t>דניאל</t>
+  </si>
+  <si>
+    <t>יוסף</t>
   </si>
   <si>
     <t xml:space="preserve">הצעה </t>
   </si>
   <si>
-    <t>גרינברגר גילי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כלפון טל </t>
-  </si>
-  <si>
-    <t>יהוד ספיר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כהן ליאל </t>
-  </si>
-  <si>
-    <t>אוריה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שאלון </t>
-  </si>
-  <si>
-    <t>דהן</t>
-  </si>
-  <si>
-    <t>בוצע חישוב לא זכאי להחזר</t>
-  </si>
-  <si>
-    <t>עוזירי קארין</t>
-  </si>
-  <si>
-    <t>לוי הודיה</t>
-  </si>
-  <si>
-    <t>יבגניה*</t>
-  </si>
-  <si>
-    <t>פונומריוב</t>
-  </si>
-  <si>
-    <t>בוצע גבייה 6.11.23</t>
-  </si>
-  <si>
-    <t>לוייב</t>
-  </si>
-  <si>
-    <t>בוצע חישוב - לא זכאי להחזר</t>
-  </si>
-  <si>
-    <t>הוגש למס הכנסה 26.03.24</t>
-  </si>
-  <si>
-    <t>הוגש למס הכנסה</t>
-  </si>
-  <si>
-    <t>מיגיר</t>
-  </si>
-  <si>
-    <t>בוצע גבייה 11.04.24</t>
-  </si>
-  <si>
-    <t>אלבר ואילנית*</t>
-  </si>
-  <si>
-    <t>בוצע גבייה 12.12.23בוצע גבייה 14.02.24</t>
-  </si>
-  <si>
-    <t>אושרת מסעודה</t>
-  </si>
-  <si>
-    <t>עודני</t>
-  </si>
-  <si>
-    <t>לברון</t>
-  </si>
-  <si>
-    <t>054-6436051</t>
-  </si>
-  <si>
-    <t>אלירז ( עידן )</t>
-  </si>
-  <si>
-    <t>כס</t>
-  </si>
-  <si>
-    <t>עידן ( ואלירז )</t>
-  </si>
-  <si>
-    <t>052-4160246</t>
-  </si>
-  <si>
-    <t>מישל וורד</t>
-  </si>
-  <si>
-    <t>שוקרני</t>
+    <t>בינדר פראדל</t>
+  </si>
+  <si>
+    <t>לוי רחל</t>
+  </si>
+  <si>
+    <t>חן אביגיל</t>
+  </si>
+  <si>
+    <t>לא רלונטי</t>
+  </si>
+  <si>
+    <t>רונן</t>
+  </si>
+  <si>
+    <t>רועי</t>
+  </si>
+  <si>
+    <t>עזרא</t>
+  </si>
+  <si>
+    <t>דהן גלית</t>
+  </si>
+  <si>
+    <t>עליזה</t>
+  </si>
+  <si>
+    <t>גל</t>
+  </si>
+  <si>
+    <t>בריל חיה</t>
+  </si>
+  <si>
+    <t>ברנד שולמית</t>
+  </si>
+  <si>
+    <t>ברקוביץ הדסה</t>
+  </si>
+  <si>
+    <t>פרטים</t>
+  </si>
+  <si>
+    <t>ויזל רחל</t>
+  </si>
+  <si>
+    <t>מורי</t>
+  </si>
+  <si>
+    <t>0535551575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ששון </t>
+  </si>
+  <si>
+    <t>רכב אבני</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0547390098 </t>
+  </si>
+  <si>
+    <t>רכב קודם 6056262</t>
+  </si>
+  <si>
+    <t>נגר</t>
+  </si>
+  <si>
+    <t>רבי</t>
+  </si>
+  <si>
+    <t>0504117072</t>
+  </si>
+  <si>
+    <t>עופרה קוקו עובדיה</t>
+  </si>
+  <si>
+    <t>0542173400</t>
+  </si>
+  <si>
+    <t>גל סופר -סוכן לא מעודכן בבאפי .23821208023משכנתא מזרחי טפחות 411 חולון .שטח - 110 מ"ר קומה 2 מתוך 11 .720 כנון.הדס 14 דירה 6 .חולון .תל - 01/10/1954לא הו תביעות .בלוקים בטון .סטנדרט בניה  ת' בטוח - 15/6/03/2023תום תקו' -31/10/2034</t>
+  </si>
+  <si>
+    <t>רייס פרידה</t>
+  </si>
+  <si>
+    <t>פרידה</t>
+  </si>
+  <si>
+    <t>רייס</t>
+  </si>
+  <si>
+    <t>0527655108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>בן שושן</t>
+  </si>
+  <si>
+    <t>חיה</t>
+  </si>
+  <si>
+    <t>גורג</t>
+  </si>
+  <si>
+    <t>מוטל</t>
+  </si>
+  <si>
+    <t>0506610210</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0536785237</t>
+  </si>
+  <si>
+    <t>סמדר צמח</t>
+  </si>
+  <si>
+    <t>0542639633</t>
+  </si>
+  <si>
+    <t>מלץ</t>
+  </si>
+  <si>
+    <t>חידושים לא אוטומטי</t>
+  </si>
+  <si>
+    <t>לגבי שם סוכן -יתכן ששיכת לאיציק -לבדוק</t>
+  </si>
+  <si>
+    <t>מור לוי</t>
+  </si>
+  <si>
+    <t>0542642142</t>
+  </si>
+  <si>
+    <t>0545517004</t>
+  </si>
+  <si>
+    <t>שאול 3 חיפה קומה 3 מתוך 3</t>
+  </si>
+  <si>
+    <t>איתני</t>
+  </si>
+  <si>
+    <t>0506656015</t>
+  </si>
+  <si>
+    <t>0505795019</t>
+  </si>
+  <si>
+    <t>0505901401</t>
   </si>
   <si>
     <t>אושר כהן</t>
   </si>
   <si>
     <t>גל מסיקה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בוצע גבייה 6.11.23ככ דג מ כדגמכדגלךכ מדגךלכ דגךכלמ חצד גכדג ככדגשגשדג שדגשדגשד גשדג שדג שדגשדג דשג שדג שדג  שגדשדגשדגשדג שדג שדג שד גשד </t>
   </si>
 </sst>
 </file>
@@ -185,7 +269,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -193,7 +277,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -236,7 +320,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -244,7 +328,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -252,7 +336,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -260,7 +344,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -269,7 +353,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -278,7 +362,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -286,7 +370,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -295,7 +379,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -303,7 +387,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -312,7 +396,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -321,7 +405,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -329,7 +413,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -678,8 +762,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -702,7 +787,6 @@
     <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -726,6 +810,7 @@
     <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,18 +1141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3B83C-8028-48D1-AE88-09BD72429F2D}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1E26E1-6529-7A42-B0CC-C849B6439E2E}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1100,1094 +1181,413 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>545237735</v>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44941</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45428.381249999999</v>
+        <v>39</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44899</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45354.509722222225</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>527003297</v>
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45015</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45334.593055555553</v>
+        <v>42</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44901</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45398.634722222225</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44928</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45400.652777777781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="e">
+        <f>-מבנה</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>536696516</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45060</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45340.359722222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>509432413</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45110</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45397.327777777777</v>
+        <v>48</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44945</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45326.417361111111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45160</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45305.479166666664</v>
+        <v>53</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45043</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45300.609722222223</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>525756560</v>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45334.359722222223</v>
+        <v>17</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45238</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45427.57916666667</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45396.443749999999</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45294</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45294.504166666666</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>506260081</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45377.411111111112</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45308</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45308.418055555558</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>545237735</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44941</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45428.381249999999</v>
+        <v>34</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45314</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45354.515277777777</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>527003297</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <v>45015</v>
-      </c>
-      <c r="I11" s="2">
-        <v>45334.593055555553</v>
+        <v>65</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45330</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45330.436805555553</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>536696516</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1">
-        <v>45060</v>
-      </c>
-      <c r="I12" s="2">
-        <v>45340.359722222223</v>
+      <c r="H12" s="2">
+        <v>45333</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45333.530555555553</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>509432413</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45110</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45397.327777777777</v>
+        <v>69</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45336</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45337.609027777777</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>506508288</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45160</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45305.479166666664</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45364</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45364.496527777781</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>525756560</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45334.359722222223</v>
+        <v>22</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45385</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45385.59097222222</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I16" s="2">
-        <v>45396.443749999999</v>
+        <v>22</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45386</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45392.601388888892</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>506260081</v>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45377.411111111112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>525756560</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I18" s="2">
-        <v>45334.359722222223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I19" s="2">
-        <v>45396.443749999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>506260081</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I20" s="2">
-        <v>45377.411111111112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>545237735</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1">
-        <v>44941</v>
-      </c>
-      <c r="I21" s="2">
-        <v>45428.381249999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>527003297</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1">
-        <v>45015</v>
-      </c>
-      <c r="I22" s="2">
-        <v>45334.593055555553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>536696516</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="1">
-        <v>45060</v>
-      </c>
-      <c r="I23" s="2">
-        <v>45340.359722222223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>509432413</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="1">
-        <v>45110</v>
-      </c>
-      <c r="I24" s="2">
-        <v>45397.327777777777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1">
-        <v>45160</v>
-      </c>
-      <c r="I25" s="2">
-        <v>45305.479166666664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>525756560</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I26" s="2">
-        <v>45334.359722222223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I27" s="2">
-        <v>45396.443749999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>506260081</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45377.411111111112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>525756560</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I29" s="2">
-        <v>45334.359722222223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I30" s="2">
-        <v>45396.443749999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>506260081</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I31" s="2">
-        <v>45377.411111111112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>545237735</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="1">
-        <v>44941</v>
-      </c>
-      <c r="I32" s="2">
-        <v>45428.381249999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>527003297</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="1">
-        <v>45015</v>
-      </c>
-      <c r="I33" s="2">
-        <v>45334.593055555553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>536696516</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="1">
-        <v>45060</v>
-      </c>
-      <c r="I34" s="2">
-        <v>45340.359722222223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>509432413</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="1">
-        <v>45110</v>
-      </c>
-      <c r="I35" s="2">
-        <v>45397.327777777777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="1">
-        <v>45160</v>
-      </c>
-      <c r="I36" s="2">
-        <v>45305.479166666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>525756560</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1">
-        <v>45161</v>
-      </c>
-      <c r="I37" s="2">
-        <v>45334.359722222223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="1">
-        <v>45166</v>
-      </c>
-      <c r="I38" s="2">
-        <v>45396.443749999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39">
-        <v>506260081</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="1">
-        <v>45272</v>
-      </c>
-      <c r="I39" s="2">
-        <v>45377.411111111112</v>
+      <c r="H17" s="2">
+        <v>45392</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45392.431944444441</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I9" xr:uid="{7CF3B83C-8028-48D1-AE88-09BD72429F2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
-      <sortCondition ref="E1:E9"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>